--- a/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Xuất kho/Tháng 12/XKBH_KhoVNET_091225.xlsx
+++ b/2. Báo cáo - giấy tờ/2. Bảo hành/Xuất nhập kho 2025/Xuất kho/Tháng 12/XKBH_KhoVNET_091225.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\2. Báo cáo - giấy tờ\2. Bảo hành\Xuất nhập kho 2025\Xuất kho\Tháng 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C8CF12-D02D-434A-99C1-1EB98AD44FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C01AEAE-9B85-4E24-9CC9-9336F4589EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,8 +609,8 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>488016</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>321879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
@@ -997,7 +997,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="130" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="H12" s="33"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="33">
         <v>4</v>
       </c>
@@ -1298,7 +1298,7 @@
     <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="33"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="13"/>
